--- a/vnstocks_data/VNINDEX_data.xlsx
+++ b/vnstocks_data/VNINDEX_data.xlsx
@@ -50479,16 +50479,16 @@
         <v>1674.76</v>
       </c>
       <c r="C2502" t="n">
-        <v>1687.07</v>
+        <v>1688.02</v>
       </c>
       <c r="D2502" t="n">
         <v>1672.26</v>
       </c>
       <c r="E2502" t="n">
-        <v>1686.89</v>
+        <v>1686.12</v>
       </c>
       <c r="F2502" t="n">
-        <v>424229343</v>
+        <v>466961418</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/VNINDEX_data.xlsx
+++ b/vnstocks_data/VNINDEX_data.xlsx
@@ -50485,10 +50485,10 @@
         <v>1672.26</v>
       </c>
       <c r="E2502" t="n">
-        <v>1686.12</v>
+        <v>1685.47</v>
       </c>
       <c r="F2502" t="n">
-        <v>466961418</v>
+        <v>503471840</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/VNINDEX_data.xlsx
+++ b/vnstocks_data/VNINDEX_data.xlsx
@@ -50485,10 +50485,10 @@
         <v>1672.26</v>
       </c>
       <c r="E2502" t="n">
-        <v>1685.47</v>
+        <v>1685.99</v>
       </c>
       <c r="F2502" t="n">
-        <v>503471840</v>
+        <v>523464851</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/VNINDEX_data.xlsx
+++ b/vnstocks_data/VNINDEX_data.xlsx
@@ -50485,10 +50485,10 @@
         <v>1672.26</v>
       </c>
       <c r="E2502" t="n">
-        <v>1685.99</v>
+        <v>1683.8</v>
       </c>
       <c r="F2502" t="n">
-        <v>523464851</v>
+        <v>658386146</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/VNINDEX_data.xlsx
+++ b/vnstocks_data/VNINDEX_data.xlsx
@@ -50485,10 +50485,10 @@
         <v>1672.26</v>
       </c>
       <c r="E2502" t="n">
-        <v>1683.8</v>
+        <v>1686.28</v>
       </c>
       <c r="F2502" t="n">
-        <v>658386146</v>
+        <v>750210377</v>
       </c>
     </row>
   </sheetData>
